--- a/_Lang_Korean/Lang/KR/Dialog/Drama/kettle.xlsx
+++ b/_Lang_Korean/Lang/KR/Dialog/Drama/kettle.xlsx
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t xml:space="preserve">パルミア王立図書館の古文書の中に、幾つか魔石についての伝承の記述が残っている。
-パルミアには、かつて大いなる力を秘めた三つの魔石が存在したという。覇者の魔石、賢者の魔石、愚者の魔石、王国に繁栄をもたらしたこれらの魔石はしかし、ザシム王の時代に、とある秘密を永遠に守るための封印の鍵として、最も強大で邪悪な存在の元へと送られた。
+パルミアには、かつて大いなる力を秘めた三つの魔石が存在したという。覇者の魔石、賢者の魔石、愚者の魔石、王国に繁栄をもたらしたこれらの魔石はしかし、ザシム王の時代に、とある秘密を永遠に守るための封印の鍵として、最も強大で邪悪な存在の元へと贈られた。
 一つは古の王族に、一つは鋼鉄の竜に、一つは不浄の魔術師に。</t>
   </si>
   <si>
@@ -1410,9 +1410,9 @@
   <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L145" sqref="L145"/>
-      <selection pane="bottomLeft" activeCell="J107" sqref="J107"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
